--- a/excels/extract.xlsx
+++ b/excels/extract.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,19 +421,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28.8" customWidth="1" min="1" max="1"/>
+    <col width="58.8" customWidth="1" min="1" max="1"/>
     <col width="66" customWidth="1" min="2" max="2"/>
     <col width="9.6" customWidth="1" min="3" max="3"/>
-    <col width="9.6" customWidth="1" min="4" max="4"/>
-    <col width="9.6" customWidth="1" min="5" max="5"/>
-    <col width="8.4" customWidth="1" min="6" max="6"/>
-    <col width="7.199999999999999" customWidth="1" min="7" max="7"/>
-    <col width="9.6" customWidth="1" min="8" max="8"/>
-    <col width="9.6" customWidth="1" min="9" max="9"/>
-    <col width="9.6" customWidth="1" min="10" max="10"/>
-    <col width="14.4" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="8.4" customWidth="1" min="13" max="13"/>
+    <col width="10.8" customWidth="1" min="4" max="4"/>
+    <col width="10.8" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="6" max="6"/>
+    <col width="8.4" customWidth="1" min="7" max="7"/>
+    <col width="10.8" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="13.2" customWidth="1" min="10" max="10"/>
+    <col width="33.6" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="50.4" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,55 +506,825 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>노스페이스 온 볼 자켓 블랙</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/178681?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>163000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>NJ3NP55A/NJ3NQ53A/NJ3NQ53E</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>나이키 ACG 써마핏 ADV 루나 레이크 루즈 후드 자켓 블랙 서밋 화이트 - 아시아</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/376708?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>302000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47000</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FV8911-010</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Black/Black/Summit White</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>노스페이스 1996 에코 눕시 자켓 블랙</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/48860?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>332000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>437000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>105000</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NJ1DN55A/M62A/N75A/P75A</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>(W) 노스페이스 화이트 라벨 노벨티 눕시 다운 자켓 크림 베이지</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/223283?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>282000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>281000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1000</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>393000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9800033</v>
+      </c>
+      <c r="J5" t="n">
+        <v>368000</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>NJ1DQ80M/NJ1DP85K/NJ1DQ85P</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Cream Beige</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>노스페이스 화이트 라벨 노벨티 눕시 RDS 다운 자켓 블랙</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/256806?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>285000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>315000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>NJ1DQ51J</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>노스페이스 1996 에코 눕시 자켓 블랙</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/209372?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>262000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>284000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>22000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>NJ1DQ55A</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>스투시 다운 파카 마이크로 립스탑 팬텀 블랙</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/184020?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>620000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>798000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>178000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>115685</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>23/09/29</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Phantom Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>나이키 ACG 써마핏 ADV 루나 레이크 퍼퍼 자켓 블랙 - 아시아</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/81783?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>365000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>450000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>85000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DH3071-011</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>22/10/26</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Black/Black/Dark Smoke Grey/Summit White</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>나이키 NSW 패딩 자켓 블랙 - 아시아</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>https://kream.co.kr/products/198883?fetchRelated=true</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>모든 사이즈</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>160000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E10" t="n">
         <v>190000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F10" t="n">
         <v>30000</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>0.16</t>
         </is>
       </c>
-      <c r="H2" t="n">
-        <v>167000</v>
-      </c>
-      <c r="I2" t="n">
-        <v>20001</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="H10" t="n">
+        <v>176000</v>
+      </c>
+      <c r="I10" t="n">
+        <v>90005</v>
+      </c>
+      <c r="J10" t="n">
         <v>239000</v>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>FB7369-010</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>아크테릭스 세륨 후디 블랙</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/186299?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>655000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>755000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>772000</v>
+      </c>
+      <c r="I11" t="n">
+        <v>280003</v>
+      </c>
+      <c r="J11" t="n">
+        <v>400587200</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>7313</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>노스페이스 1996 에코 눕시 자켓 리얼 블랙</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/140970?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>299000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>380000</v>
+      </c>
+      <c r="F12" t="n">
+        <v>81000</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>308000</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>399000</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>NJ1DP75C</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Real Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>스톤 아일랜드 40723 크링클랩스 후드 다운 자켓 블랙 - 24FW</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/323251?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1225000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1592000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>367000</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1580000</v>
+      </c>
+      <c r="I13" t="n">
+        <v>33000026</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>811540723-V0029</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>슈프림 마이크로 다운 하프 집 후드 풀오버 블랙 - 24FW</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/376106?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>490000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>565000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>24/10/24</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>팔라스 퍼텍스 오파크 바라클라바 푸파 블랙 - 24FW</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/360153?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>799000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>842000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>43000</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>909000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>790009</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>24/11/22</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>산산기어 서픽스 푸퍼 자켓 스카이 블루 - 24FW</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://kream.co.kr/products/373783?fetchRelated=true</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>모든 사이즈</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>406000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>410000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>SG2404DP01SB</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>24/10/04</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Sky Blue</t>
         </is>
       </c>
     </row>

--- a/excels/extract.xlsx
+++ b/excels/extract.xlsx
@@ -424,12 +424,12 @@
     <col width="58.8" customWidth="1" min="1" max="1"/>
     <col width="66" customWidth="1" min="2" max="2"/>
     <col width="9.6" customWidth="1" min="3" max="3"/>
-    <col width="10.8" customWidth="1" min="4" max="4"/>
-    <col width="10.8" customWidth="1" min="5" max="5"/>
+    <col width="9.6" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
     <col width="9.6" customWidth="1" min="6" max="6"/>
     <col width="8.4" customWidth="1" min="7" max="7"/>
-    <col width="10.8" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="9.6" customWidth="1" min="8" max="8"/>
+    <col width="10.8" customWidth="1" min="9" max="9"/>
     <col width="13.2" customWidth="1" min="10" max="10"/>
     <col width="33.6" customWidth="1" min="11" max="11"/>
     <col width="12" customWidth="1" min="12" max="12"/>
@@ -520,27 +520,27 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>150000</v>
+        <v>155000</v>
       </c>
       <c r="E2" t="n">
-        <v>163000</v>
+        <v>167000</v>
       </c>
       <c r="F2" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>179000</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>249000</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -575,27 +575,27 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>255000</v>
+        <v>259000</v>
       </c>
       <c r="E3" t="n">
-        <v>302000</v>
+        <v>315000</v>
       </c>
       <c r="F3" t="n">
-        <v>47000</v>
+        <v>56000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>265000</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-32000</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>405000</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -630,27 +630,27 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>332000</v>
+        <v>317000</v>
       </c>
       <c r="E4" t="n">
-        <v>437000</v>
+        <v>475000</v>
       </c>
       <c r="F4" t="n">
-        <v>105000</v>
+        <v>158000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>402000</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -685,24 +685,24 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>282000</v>
+        <v>277000</v>
       </c>
       <c r="E5" t="n">
-        <v>281000</v>
+        <v>263000</v>
       </c>
       <c r="F5" t="n">
-        <v>-1000</v>
+        <v>-14000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>393000</v>
+        <v>322000</v>
       </c>
       <c r="I5" t="n">
-        <v>9800033</v>
+        <v>44000</v>
       </c>
       <c r="J5" t="n">
         <v>368000</v>
@@ -726,12 +726,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>노스페이스 화이트 라벨 노벨티 눕시 RDS 다운 자켓 블랙</t>
+          <t>노스페이스 1996 에코 눕시 자켓 블랙</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://kream.co.kr/products/256806?fetchRelated=true</t>
+          <t>https://kream.co.kr/products/209372?fetchRelated=true</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -740,31 +740,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>285000</v>
+        <v>265000</v>
       </c>
       <c r="E6" t="n">
-        <v>315000</v>
+        <v>291000</v>
       </c>
       <c r="F6" t="n">
-        <v>30000</v>
+        <v>26000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>272000</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-23000</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>NJ1DQ51J</t>
+          <t>NJ1DQ55A</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -781,12 +781,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>노스페이스 1996 에코 눕시 자켓 블랙</t>
+          <t>노스페이스 화이트 라벨 노벨티 눕시 RDS 다운 자켓 블랙</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://kream.co.kr/products/209372?fetchRelated=true</t>
+          <t>https://kream.co.kr/products/256806?fetchRelated=true</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -795,31 +795,31 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>262000</v>
+        <v>295000</v>
       </c>
       <c r="E7" t="n">
-        <v>284000</v>
+        <v>312000</v>
       </c>
       <c r="F7" t="n">
-        <v>22000</v>
+        <v>17000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>329000</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>398000</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>NJ1DQ55A</t>
+          <t>NJ1DQ51J</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -850,27 +850,27 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>620000</v>
+        <v>630000</v>
       </c>
       <c r="E8" t="n">
         <v>798000</v>
       </c>
       <c r="F8" t="n">
-        <v>178000</v>
+        <v>168000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>621000</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-125000</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>546000</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -905,27 +905,27 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>365000</v>
+        <v>359000</v>
       </c>
       <c r="E9" t="n">
-        <v>450000</v>
+        <v>520000</v>
       </c>
       <c r="F9" t="n">
-        <v>85000</v>
+        <v>161000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>487000</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>409000</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -960,24 +960,24 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>160000</v>
+        <v>163000</v>
       </c>
       <c r="E10" t="n">
-        <v>190000</v>
+        <v>173000</v>
       </c>
       <c r="F10" t="n">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>176000</v>
+        <v>170000</v>
       </c>
       <c r="I10" t="n">
-        <v>90005</v>
+        <v>3000</v>
       </c>
       <c r="J10" t="n">
         <v>239000</v>
@@ -1015,27 +1015,27 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>655000</v>
+        <v>654000</v>
       </c>
       <c r="E11" t="n">
-        <v>755000</v>
+        <v>771000</v>
       </c>
       <c r="F11" t="n">
-        <v>100000</v>
+        <v>117000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>772000</v>
+        <v>714000</v>
       </c>
       <c r="I11" t="n">
-        <v>280003</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>400587200</v>
+        <v>400587700</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1056,12 +1056,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>노스페이스 1996 에코 눕시 자켓 리얼 블랙</t>
+          <t>나이키 써마핏 ADV 에어로로프트 리펠 다운 러닝 자켓 블랙 - 아시아</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://kream.co.kr/products/140970?fetchRelated=true</t>
+          <t>https://kream.co.kr/products/206277?fetchRelated=true</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1070,31 +1070,31 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>299000</v>
+        <v>168000</v>
       </c>
       <c r="E12" t="n">
-        <v>380000</v>
+        <v>171000</v>
       </c>
       <c r="F12" t="n">
-        <v>81000</v>
+        <v>3000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>308000</v>
+        <v>183000</v>
       </c>
       <c r="I12" t="n">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="J12" t="n">
-        <v>399000</v>
+        <v>315000</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>NJ1DP75C</t>
+          <t>FB7557-010</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1104,19 +1104,19 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Real Black</t>
+          <t>Black</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>스톤 아일랜드 40723 크링클랩스 후드 다운 자켓 블랙 - 24FW</t>
+          <t>랩 마이크로라이트 알파인 자켓 블랙</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://kream.co.kr/products/323251?fetchRelated=true</t>
+          <t>https://kream.co.kr/products/200071?fetchRelated=true</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1125,31 +1125,31 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1225000</v>
+        <v>188000</v>
       </c>
       <c r="E13" t="n">
-        <v>1592000</v>
+        <v>241000</v>
       </c>
       <c r="F13" t="n">
-        <v>367000</v>
+        <v>53000</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1580000</v>
+        <v>232000</v>
       </c>
       <c r="I13" t="n">
-        <v>33000026</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>170000</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>811540723-V0029</t>
+          <t>QDB-12</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1166,12 +1166,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>슈프림 마이크로 다운 하프 집 후드 풀오버 블랙 - 24FW</t>
+          <t>노스페이스 1996 에코 눕시 자켓 리얼 블랙</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://kream.co.kr/products/376106?fetchRelated=true</t>
+          <t>https://kream.co.kr/products/140970?fetchRelated=true</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1180,53 +1180,53 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>490000</v>
+        <v>290000</v>
       </c>
       <c r="E14" t="n">
-        <v>565000</v>
+        <v>372000</v>
       </c>
       <c r="F14" t="n">
-        <v>75000</v>
+        <v>82000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>377000</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>399000</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
+          <t>NJ1DP75C</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>24/10/24</t>
-        </is>
-      </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Black</t>
+          <t>Real Black</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>팔라스 퍼텍스 오파크 바라클라바 푸파 블랙 - 24FW</t>
+          <t>슈프림 마이크로 다운 하프 집 후드 풀오버 블랙 - 24FW</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://kream.co.kr/products/360153?fetchRelated=true</t>
+          <t>https://kream.co.kr/products/376106?fetchRelated=true</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1235,27 +1235,27 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>799000</v>
+        <v>510000</v>
       </c>
       <c r="E15" t="n">
-        <v>842000</v>
+        <v>568000</v>
       </c>
       <c r="F15" t="n">
-        <v>43000</v>
+        <v>58000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>909000</v>
+        <v>540000</v>
       </c>
       <c r="I15" t="n">
-        <v>790009</v>
+        <v>21000</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>238349600</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>24/11/22</t>
+          <t>24/10/24</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>406000</v>
+        <v>392000</v>
       </c>
       <c r="E16" t="n">
-        <v>410000</v>
+        <v>397000</v>
       </c>
       <c r="F16" t="n">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1304,13 +1304,13 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>427000</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-20000</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>298000</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
